--- a/Excel/SkillDivineConfig.xlsx
+++ b/Excel/SkillDivineConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1053,7 +1053,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="2">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>9</v>
@@ -1186,7 +1186,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="2">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>11</v>
@@ -1210,7 +1210,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="2">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>13</v>
@@ -1234,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="2">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>9</v>
@@ -1258,7 +1258,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="2">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>11</v>
@@ -1282,7 +1282,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="2">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>13</v>
@@ -1306,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>9</v>
@@ -1330,7 +1330,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>11</v>
@@ -1354,7 +1354,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>13</v>
@@ -1378,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>9</v>
